--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2327,21 +2327,21 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>GPS module error Restart aircraft .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2366,52 +2366,52 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2426,52 +2426,52 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2486,42 +2486,42 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2546,42 +2546,42 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2606,47 +2606,47 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2666,42 +2666,42 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft power insufficient</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2726,37 +2726,37 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Aircraft in Restricted Zones</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2786,52 +2786,52 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2846,52 +2846,52 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2906,42 +2906,42 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2966,17 +2966,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Cannot enable Follow Me Mode</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -2987,21 +2987,21 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3026,42 +3026,42 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Temp Max Altitude 98ft</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>Temp Max Altitude 98ft</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3086,52 +3086,52 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error Restart aircraft .</t>
+          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3146,52 +3146,52 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+          <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>Aircraft takeoff altitude error</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3206,20 +3206,50 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>Not suitable for shooting a 4K video</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7-13</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>45</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>SD card write speed is too slow</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>0-6</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
         <is>
           <t>Event</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2327,21 +2327,21 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2366,52 +2366,52 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>GPS module error Restart aircraft .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2426,52 +2426,52 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2486,42 +2486,42 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2546,42 +2546,42 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2606,47 +2606,47 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Aircraft power insufficient</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2666,42 +2666,42 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2726,37 +2726,37 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Aircraft in Restricted Zones</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2786,52 +2786,52 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2846,52 +2846,52 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2906,42 +2906,42 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2966,17 +2966,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -2987,21 +2987,21 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Cannot enable Follow Me Mode</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3026,42 +3026,42 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Temp Max Altitude 98ft</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Temp Max Altitude 98ft</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3086,52 +3086,52 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
+          <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3146,52 +3146,52 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Aircraft takeoff altitude error</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error Restart aircraft .</t>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3206,50 +3206,20 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>SD card write speed is too slow</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>45</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>0-6</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
